--- a/biology/Médecine/Société_canadienne_d'épidémiologie_et_de_biostatistique/Société_canadienne_d'épidémiologie_et_de_biostatistique.xlsx
+++ b/biology/Médecine/Société_canadienne_d'épidémiologie_et_de_biostatistique/Société_canadienne_d'épidémiologie_et_de_biostatistique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_d%27%C3%A9pid%C3%A9miologie_et_de_biostatistique</t>
+          <t>Société_canadienne_d'épidémiologie_et_de_biostatistique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société canadienne d’épidémiologie et de biostatistique (SCEB) en anglais : Canadian Society for Epidemiology and Biostatistics (CSEB), fondée en 1990, est une organisation professionnelle favorisant la recherche épidémiologique et biostatistique au Canada[1],[2],[3]. Sa mission consiste à améliorer la santé et le bien-être par l’intermédiaire de la recherche et de la pratique dans ces deux disciplines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société canadienne d’épidémiologie et de biostatistique (SCEB) en anglais : Canadian Society for Epidemiology and Biostatistics (CSEB), fondée en 1990, est une organisation professionnelle favorisant la recherche épidémiologique et biostatistique au Canada. Sa mission consiste à améliorer la santé et le bien-être par l’intermédiaire de la recherche et de la pratique dans ces deux disciplines.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_d%27%C3%A9pid%C3%A9miologie_et_de_biostatistique</t>
+          <t>Société_canadienne_d'épidémiologie_et_de_biostatistique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur Colin L. Soskolne, épidémiologiste rattaché à l’école de santé publique de l'Université de l'Alberta, en fut le président de 2007 à 2011. Au cours de la période 2007-2009, les responsables travaillèrent à remodeler et à dynamiser la Société, son nombre d’adhérents étant en croissance.  
-La Société comprend des membres anglophones et est également connue sous le nom de Canadian Society for Epidemiology and Biostatistics[1],[2],[3].
-Les bureaux de la SCEB sont situés à Ottawa. La Société compte actuellement 210[Quand ?] membres au Canada et à l’étranger[1].
+La Société comprend des membres anglophones et est également connue sous le nom de Canadian Society for Epidemiology and Biostatistics.
+Les bureaux de la SCEB sont situés à Ottawa. La Société compte actuellement 210[Quand ?] membres au Canada et à l’étranger.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_d%27%C3%A9pid%C3%A9miologie_et_de_biostatistique</t>
+          <t>Société_canadienne_d'épidémiologie_et_de_biostatistique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Présidence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1991–1993 : Nancy Kreiger
 1993–1995 : Jean Joly
